--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\rpg-maquette\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556754AF-DAA7-46B7-B49E-01FC534848BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F348BBB8-5120-41DF-8594-639D699F80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
   <si>
     <t>clés</t>
   </si>
@@ -383,12 +383,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
     <t>Contrôles</t>
   </si>
   <si>
@@ -404,31 +398,9 @@
     <t>Notifications</t>
   </si>
   <si>
-    <t>Inverted</t>
-  </si>
-  <si>
-    <t>Inversé</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Joypad and keyboard
-vertical axis</t>
-  </si>
-  <si>
-    <t>Mouse
-vertical axis</t>
-  </si>
-  <si>
-    <t>Axe vertical
-manette et clavier</t>
-  </si>
-  <si>
-    <t>Axe vertical
-souris</t>
-  </si>
-  <si>
     <t>Loading...</t>
   </si>
   <si>
@@ -484,6 +456,63 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>XP Gain : %d</t>
+  </si>
+  <si>
+    <t>Damages : %s</t>
+  </si>
+  <si>
+    <t>Attack Speed (%s) : %d</t>
+  </si>
+  <si>
+    <t>Hit Points (%s) : %d</t>
+  </si>
+  <si>
+    <t>Walking Speed (%s) : %d</t>
+  </si>
+  <si>
+    <t>Running Speed (%s) : %d</t>
+  </si>
+  <si>
+    <t>Detection Distance (%s) : %dm</t>
+  </si>
+  <si>
+    <t>Hearing Distance: %dm</t>
+  </si>
+  <si>
+    <t>%s damages to %s with %s</t>
+  </si>
+  <si>
+    <t>+%d XP</t>
+  </si>
+  <si>
+    <t>Gain XP : %d</t>
+  </si>
+  <si>
+    <t>Dommages : %s</t>
+  </si>
+  <si>
+    <t>Vitesse d'attaque (%s) : %d</t>
+  </si>
+  <si>
+    <t>Points de vie (%s) : %d</t>
+  </si>
+  <si>
+    <t>Vitesse de marche (%s) : %d</t>
+  </si>
+  <si>
+    <t>Vitesse de course (%s) : %d</t>
+  </si>
+  <si>
+    <t>Distance de détection (%s) : %dm</t>
+  </si>
+  <si>
+    <t>Distance d'écoute: %dm</t>
+  </si>
+  <si>
+    <t>%s dommages à %s avec %s</t>
   </si>
 </sst>
 </file>
@@ -519,11 +548,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,16 +864,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -856,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1587,7 +1613,7 @@
         <v>114</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" ref="B62:B78" si="1">A62</f>
+        <f t="shared" ref="B62:B74" si="1">A62</f>
         <v>Menu</v>
       </c>
       <c r="C62" t="s">
@@ -1596,26 +1622,26 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>Smartphone</v>
+        <v>Controls</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>Controls</v>
+        <v>Quit</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,44 +1650,43 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>Quit</v>
+        <v>Notifications</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>Notifications</v>
+        <v>Normal</v>
       </c>
       <c r="C66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>Joypad and keyboard
-vertical axis</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>127</v>
+        <v>Loading...</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>Normal</v>
+        <v>Continue</v>
       </c>
       <c r="C68" t="s">
         <v>124</v>
@@ -1669,84 +1694,82 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>Inverted</v>
+        <v>New game</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>116</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>Mouse
-vertical axis</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>Controls</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Player</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>Continue</v>
+        <v>Player creation</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>New game</v>
+        <v>Your name :</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>Controls</v>
+        <v>Character :</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>Player</v>
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
       </c>
       <c r="C75" t="s">
         <v>135</v>
@@ -1754,60 +1777,123 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
         <v>136</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>Player creation</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Your name :</v>
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>Character :</v>
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
         <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>146</v>
       </c>
-      <c r="B80" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" t="s">
-        <v>144</v>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
